--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickb/Developer/rickb/baby-yoda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29EAA2-4CBD-314F-A5F4-008E4CA43336}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B0A5A2-75FC-974A-B6F1-5CFAE20CC287}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54240" yWindow="15300" windowWidth="28040" windowHeight="17440" xr2:uid="{481C13B6-9D22-DD46-9BF8-DCCF9F7CB19F}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9691CBA4-6D36-624E-B01A-24A5C9977766}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,6 +798,422 @@
         <v>-11</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>-100</v>
+      </c>
+      <c r="G13">
+        <v>-12</v>
+      </c>
+      <c r="H13">
+        <v>-100</v>
+      </c>
+      <c r="I13">
+        <v>-100</v>
+      </c>
+      <c r="J13">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-100</v>
+      </c>
+      <c r="F14">
+        <v>-100</v>
+      </c>
+      <c r="G14">
+        <v>-12</v>
+      </c>
+      <c r="H14">
+        <v>-100</v>
+      </c>
+      <c r="I14">
+        <v>-100</v>
+      </c>
+      <c r="J14">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>-22</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>-100</v>
+      </c>
+      <c r="I15">
+        <v>-100</v>
+      </c>
+      <c r="J15">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-100</v>
+      </c>
+      <c r="C16">
+        <v>-100</v>
+      </c>
+      <c r="D16">
+        <v>-100</v>
+      </c>
+      <c r="E16">
+        <v>-100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>-100</v>
+      </c>
+      <c r="J16">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-100</v>
+      </c>
+      <c r="C17">
+        <v>-100</v>
+      </c>
+      <c r="D17">
+        <v>-100</v>
+      </c>
+      <c r="E17">
+        <v>-75</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>-100</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-100</v>
+      </c>
+      <c r="C18">
+        <v>-100</v>
+      </c>
+      <c r="D18">
+        <v>-100</v>
+      </c>
+      <c r="E18">
+        <v>-100</v>
+      </c>
+      <c r="F18">
+        <v>-100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-100</v>
+      </c>
+      <c r="C19">
+        <v>-100</v>
+      </c>
+      <c r="D19">
+        <v>-100</v>
+      </c>
+      <c r="E19">
+        <v>-100</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-100</v>
+      </c>
+      <c r="C20">
+        <v>-100</v>
+      </c>
+      <c r="D20">
+        <v>-100</v>
+      </c>
+      <c r="E20">
+        <v>-100</v>
+      </c>
+      <c r="F20">
+        <v>-100</v>
+      </c>
+      <c r="G20">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <v>-100</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>-100</v>
+      </c>
+      <c r="G21">
+        <v>-12</v>
+      </c>
+      <c r="H21">
+        <v>-100</v>
+      </c>
+      <c r="I21">
+        <v>-100</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>-100</v>
+      </c>
+      <c r="G22">
+        <v>-12</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>-100</v>
+      </c>
+      <c r="J22">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>-10</v>
+      </c>
+      <c r="E23">
+        <v>-11</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>-27</v>
+      </c>
+      <c r="H23">
+        <v>-40</v>
+      </c>
+      <c r="I23">
+        <v>-100</v>
+      </c>
+      <c r="J23">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>-10</v>
+      </c>
+      <c r="E24">
+        <v>-100</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>-6</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>98</v>
+      </c>
+      <c r="J24">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>-100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickb/Developer/rickb/baby-yoda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B0A5A2-75FC-974A-B6F1-5CFAE20CC287}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265CD2D4-0FC7-5B4C-9C03-2D1BBB08883D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54240" yWindow="15300" windowWidth="28040" windowHeight="17440" xr2:uid="{481C13B6-9D22-DD46-9BF8-DCCF9F7CB19F}"/>
   </bookViews>
@@ -90,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9691CBA4-6D36-624E-B01A-24A5C9977766}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +927,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -958,7 +959,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -990,7 +991,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>-86</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1213,6 +1214,39 @@
       <c r="J25">
         <v>-100</v>
       </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>-100</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
